--- a/data/Szenario_Trafo_Full/Power_Network.xlsx
+++ b/data/Szenario_Trafo_Full/Power_Network.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Trafo_Full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C955D8D-905B-4EA6-B218-4AB960912EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1966D-9FCE-4528-8FEE-28FFBA629F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="114">
   <si>
     <t>Power - Network</t>
   </si>
@@ -439,6 +439,36 @@
   </si>
   <si>
     <t>Node_9.1</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c18</t>
   </si>
 </sst>
 </file>
@@ -887,13 +917,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,13 +3304,13 @@
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F47" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3301,7 +3331,7 @@
         <v>200</v>
       </c>
       <c r="L47" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="16"/>
       <c r="N47" s="16">
@@ -3327,13 +3357,13 @@
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F48" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3354,7 +3384,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16">
@@ -3386,7 +3416,7 @@
         <v>99</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F49" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3439,7 +3469,7 @@
         <v>99</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3492,7 +3522,7 @@
         <v>99</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F51" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3545,7 +3575,7 @@
         <v>99</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3598,7 +3628,7 @@
         <v>99</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F53" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3619,7 +3649,7 @@
         <v>200</v>
       </c>
       <c r="L53" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="16"/>
       <c r="N53" s="16">
@@ -3651,7 +3681,7 @@
         <v>99</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F54" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3672,7 +3702,7 @@
         <v>200</v>
       </c>
       <c r="L54" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="16"/>
       <c r="N54" s="16">
@@ -3698,13 +3728,13 @@
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F55" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3725,7 +3755,7 @@
         <v>200</v>
       </c>
       <c r="L55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="16">
@@ -3751,13 +3781,13 @@
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F56" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3778,7 +3808,7 @@
         <v>200</v>
       </c>
       <c r="L56" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="16">
@@ -3804,13 +3834,13 @@
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F57" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3857,13 +3887,13 @@
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F58" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3910,13 +3940,13 @@
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F59" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3937,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16">
@@ -3963,13 +3993,13 @@
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F60" s="13">
         <v>2.0000000000000001E-4</v>
@@ -3990,7 +4020,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="16"/>
       <c r="N60" s="16">
@@ -4016,13 +4046,13 @@
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F61" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4069,13 +4099,13 @@
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F62" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4122,13 +4152,13 @@
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F63" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4149,7 +4179,7 @@
         <v>200</v>
       </c>
       <c r="L63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="16"/>
       <c r="N63" s="16">
@@ -4175,13 +4205,13 @@
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F64" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4202,7 +4232,7 @@
         <v>200</v>
       </c>
       <c r="L64" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16">
@@ -4228,13 +4258,13 @@
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F65" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4281,13 +4311,13 @@
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F66" s="13">
         <v>2.0000000000000001E-4</v>
@@ -4327,6 +4357,642 @@
         <v>78</v>
       </c>
       <c r="S66" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G67" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H67" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I67" s="13">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="14">
+        <v>200</v>
+      </c>
+      <c r="L67" s="15">
+        <v>0</v>
+      </c>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q67" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R67" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S67" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H68" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="14">
+        <v>200</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0</v>
+      </c>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R68" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S68" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H69" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I69" s="13">
+        <v>0</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="14">
+        <v>200</v>
+      </c>
+      <c r="L69" s="15">
+        <v>1</v>
+      </c>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P69" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q69" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R69" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G70" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H70" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="14">
+        <v>200</v>
+      </c>
+      <c r="L70" s="15">
+        <v>1</v>
+      </c>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P70" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q70" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R70" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S70" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G71" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H71" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="14">
+        <v>200</v>
+      </c>
+      <c r="L71" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R71" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S71" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G72" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H72" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I72" s="13">
+        <v>0</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="14">
+        <v>200</v>
+      </c>
+      <c r="L72" s="15">
+        <v>0</v>
+      </c>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S72" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G73" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H73" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I73" s="13">
+        <v>0</v>
+      </c>
+      <c r="J73" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="14">
+        <v>200</v>
+      </c>
+      <c r="L73" s="15">
+        <v>1</v>
+      </c>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q73" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R73" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S73" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G74" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H74" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I74" s="13">
+        <v>0</v>
+      </c>
+      <c r="J74" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K74" s="14">
+        <v>200</v>
+      </c>
+      <c r="L74" s="15">
+        <v>1</v>
+      </c>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q74" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R74" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S74" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G75" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H75" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0</v>
+      </c>
+      <c r="J75" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K75" s="14">
+        <v>200</v>
+      </c>
+      <c r="L75" s="15">
+        <v>0</v>
+      </c>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P75" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S75" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G76" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H76" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="14">
+        <v>200</v>
+      </c>
+      <c r="L76" s="15">
+        <v>0</v>
+      </c>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O76" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q76" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S76" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G77" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H77" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I77" s="13">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="14">
+        <v>200</v>
+      </c>
+      <c r="L77" s="15">
+        <v>1</v>
+      </c>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q77" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R77" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S77" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G78" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H78" s="13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="14">
+        <v>200</v>
+      </c>
+      <c r="L78" s="15">
+        <v>1</v>
+      </c>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="O78" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" s="15">
+        <v>2020</v>
+      </c>
+      <c r="Q78" s="15">
+        <v>2050</v>
+      </c>
+      <c r="R78" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S78" s="17" t="s">
         <v>87</v>
       </c>
     </row>
